--- a/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.44972507332217</v>
+        <v>93.70418743689044</v>
       </c>
       <c r="D2" t="n">
-        <v>24.18106848638213</v>
+        <v>18.34115948376439</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.34278754468428</v>
+        <v>92.33925743381278</v>
       </c>
       <c r="D3" t="n">
-        <v>21.84848871283788</v>
+        <v>19.97464895755699</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.93235197440924</v>
+        <v>89.15089927424451</v>
       </c>
       <c r="D4" t="n">
-        <v>21.35361218069684</v>
+        <v>19.847519015511</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.60950228992161</v>
+        <v>89.60875222167567</v>
       </c>
       <c r="D5" t="n">
-        <v>20.77087326570429</v>
+        <v>21.76994944416762</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.54911305934955</v>
+        <v>86.59931738981628</v>
       </c>
       <c r="D6" t="n">
-        <v>20.76066090520953</v>
+        <v>19.77504323696478</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.02836729704499</v>
+        <v>89.00792818127945</v>
       </c>
       <c r="D7" t="n">
-        <v>20.50578532704794</v>
+        <v>18.95065835740861</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.95509748395195</v>
+        <v>84.22614554809559</v>
       </c>
       <c r="D8" t="n">
-        <v>22.66106185535279</v>
+        <v>19.98243165821424</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.97673715931485</v>
+        <v>82.12369882164835</v>
       </c>
       <c r="D9" t="n">
-        <v>25.87507321492036</v>
+        <v>20.79683020773233</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.00046616717265</v>
+        <v>83.60807394522757</v>
       </c>
       <c r="D10" t="n">
-        <v>22.32243003141138</v>
+        <v>20.72603614306925</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.65978600878519</v>
+        <v>81.15897344466612</v>
       </c>
       <c r="D11" t="n">
-        <v>18.50977429860348</v>
+        <v>20.93894189492756</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.45314144623364</v>
+        <v>79.39281813299412</v>
       </c>
       <c r="D12" t="n">
-        <v>20.47303315519506</v>
+        <v>21.35038094275749</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.62914370792859</v>
+        <v>82.26850127693648</v>
       </c>
       <c r="D13" t="n">
-        <v>20.86370767115079</v>
+        <v>19.84145092563683</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.7366091257712</v>
+        <v>77.07188133571107</v>
       </c>
       <c r="D14" t="n">
-        <v>20.24702941031707</v>
+        <v>19.84484728638967</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.35759104164015</v>
+        <v>77.23114302695102</v>
       </c>
       <c r="D15" t="n">
-        <v>20.18389137611786</v>
+        <v>23.01525630104642</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.56954723616775</v>
+        <v>77.99727555264847</v>
       </c>
       <c r="D16" t="n">
-        <v>20.11640283081628</v>
+        <v>18.2773250537142</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.9886364846425</v>
+        <v>73.43865349175051</v>
       </c>
       <c r="D17" t="n">
-        <v>19.20178516173022</v>
+        <v>23.70784404670133</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>78.25396538281021</v>
+        <v>68.84995153225228</v>
       </c>
       <c r="D18" t="n">
-        <v>24.26079474510633</v>
+        <v>22.2131389757035</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.12690456814136</v>
+        <v>75.38327117932398</v>
       </c>
       <c r="D19" t="n">
-        <v>20.22076557750706</v>
+        <v>20.47029734375779</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.27935309719741</v>
+        <v>76.22407918589126</v>
       </c>
       <c r="D20" t="n">
-        <v>22.10460933997271</v>
+        <v>19.19027565883869</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.23585247506981</v>
+        <v>74.72288437782228</v>
       </c>
       <c r="D21" t="n">
-        <v>21.78696080702641</v>
+        <v>21.62974411615942</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.13854287109217</v>
+        <v>70.78127939252457</v>
       </c>
       <c r="D22" t="n">
-        <v>21.2684002326484</v>
+        <v>20.39705596596657</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.13083789798002</v>
+        <v>70.16184049581805</v>
       </c>
       <c r="D23" t="n">
-        <v>21.27184333391785</v>
+        <v>20.10113752171383</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.01464829205</v>
+        <v>69.90915593271556</v>
       </c>
       <c r="D24" t="n">
-        <v>22.43172902459904</v>
+        <v>19.05701003166382</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>62.55675895055034</v>
+        <v>70.83524349807932</v>
       </c>
       <c r="D25" t="n">
-        <v>23.83500862067888</v>
+        <v>20.18567653077503</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>69.49161797967133</v>
+        <v>68.3035396308384</v>
       </c>
       <c r="D26" t="n">
-        <v>22.58067036114297</v>
+        <v>19.73526053062106</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.42665474727794</v>
+        <v>65.00514820043693</v>
       </c>
       <c r="D27" t="n">
-        <v>19.69911014699709</v>
+        <v>20.72479546442387</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.31160622941444</v>
+        <v>62.19280867021196</v>
       </c>
       <c r="D28" t="n">
-        <v>20.93975737989303</v>
+        <v>18.93798260851208</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.775971466109</v>
+        <v>61.97871693662194</v>
       </c>
       <c r="D29" t="n">
-        <v>21.64237914106827</v>
+        <v>20.37818147538221</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.29111731538414</v>
+        <v>64.83339696711181</v>
       </c>
       <c r="D30" t="n">
-        <v>20.25681760440819</v>
+        <v>21.18672458512429</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.77604736251084</v>
+        <v>62.38426788279467</v>
       </c>
       <c r="D31" t="n">
-        <v>22.70424397604722</v>
+        <v>22.59346227151008</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.10482190225396</v>
+        <v>63.16453111808885</v>
       </c>
       <c r="D32" t="n">
-        <v>20.36876592183024</v>
+        <v>18.61039760858889</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.23325492251307</v>
+        <v>60.95721674437482</v>
       </c>
       <c r="D33" t="n">
-        <v>19.72742221843886</v>
+        <v>20.28667730415801</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.5941212721436</v>
+        <v>58.31824232780326</v>
       </c>
       <c r="D34" t="n">
-        <v>18.52339561783008</v>
+        <v>21.62277548637777</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>60.4449516584996</v>
+        <v>57.55537923306428</v>
       </c>
       <c r="D35" t="n">
-        <v>20.3313814318378</v>
+        <v>21.13066724758866</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.50206512676807</v>
+        <v>57.83467076603743</v>
       </c>
       <c r="D36" t="n">
-        <v>20.22146796830788</v>
+        <v>19.44208103256334</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.88409629664725</v>
+        <v>52.8504853393154</v>
       </c>
       <c r="D37" t="n">
-        <v>21.15451695882271</v>
+        <v>20.61945968487972</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.77986074048652</v>
+        <v>54.55063533745986</v>
       </c>
       <c r="D38" t="n">
-        <v>21.78367798019338</v>
+        <v>19.73682109626897</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.71554661513935</v>
+        <v>53.57981767952376</v>
       </c>
       <c r="D39" t="n">
-        <v>20.05232323605088</v>
+        <v>19.09035583193166</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.67549185720159</v>
+        <v>51.56127051680028</v>
       </c>
       <c r="D40" t="n">
-        <v>21.11527495133634</v>
+        <v>21.63427953770181</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.51996978054218</v>
+        <v>47.98484563199313</v>
       </c>
       <c r="D41" t="n">
-        <v>21.85905205713065</v>
+        <v>20.59580710969292</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.63939723993176</v>
+        <v>49.36009596215389</v>
       </c>
       <c r="D42" t="n">
-        <v>19.70755676993872</v>
+        <v>20.38795623200088</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.45813881288884</v>
+        <v>47.40847071180734</v>
       </c>
       <c r="D43" t="n">
-        <v>20.7891267806112</v>
+        <v>20.18664448954868</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>45.34127818310206</v>
+        <v>50.55944103081096</v>
       </c>
       <c r="D44" t="n">
-        <v>19.65049158903935</v>
+        <v>20.79906170109446</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.60480423143418</v>
+        <v>51.58191855951818</v>
       </c>
       <c r="D45" t="n">
-        <v>21.179364861223</v>
+        <v>17.80535336289672</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.35870766105538</v>
+        <v>47.51529077281189</v>
       </c>
       <c r="D46" t="n">
-        <v>19.81267276780241</v>
+        <v>19.16779556769636</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.56737072954551</v>
+        <v>46.44152057126008</v>
       </c>
       <c r="D47" t="n">
-        <v>19.24180915212225</v>
+        <v>20.25730863459971</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.22668852447499</v>
+        <v>42.61251262778408</v>
       </c>
       <c r="D48" t="n">
-        <v>20.38214038903093</v>
+        <v>20.49407465983554</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.6776732379527</v>
+        <v>41.51582625327308</v>
       </c>
       <c r="D49" t="n">
-        <v>20.65253235068935</v>
+        <v>21.30943297301292</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.66312430735928</v>
+        <v>40.59916649517346</v>
       </c>
       <c r="D50" t="n">
-        <v>21.43453769786848</v>
+        <v>21.23476118360843</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.95597997122451</v>
+        <v>42.10940849069513</v>
       </c>
       <c r="D51" t="n">
-        <v>21.06238700389628</v>
+        <v>20.77566880707793</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.91691574402219</v>
+        <v>37.90167468390668</v>
       </c>
       <c r="D52" t="n">
-        <v>21.82557854431976</v>
+        <v>20.98687031164998</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>42.25934207070863</v>
+        <v>40.69405933778549</v>
       </c>
       <c r="D53" t="n">
-        <v>19.09784987824721</v>
+        <v>21.43193305762168</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.12885342224111</v>
+        <v>39.48695374855043</v>
       </c>
       <c r="D54" t="n">
-        <v>22.12323433531319</v>
+        <v>19.89718833261877</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.22246923620371</v>
+        <v>39.98528034776908</v>
       </c>
       <c r="D55" t="n">
-        <v>20.00554908694611</v>
+        <v>18.33321466133285</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>33.92503283511651</v>
+        <v>30.79719516299983</v>
       </c>
       <c r="D56" t="n">
-        <v>20.40238060037399</v>
+        <v>19.71104919491575</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.21308724213594</v>
+        <v>33.87637062559414</v>
       </c>
       <c r="D57" t="n">
-        <v>20.01896584974672</v>
+        <v>19.47262118349701</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.98585260179937</v>
+        <v>36.58616591645587</v>
       </c>
       <c r="D58" t="n">
-        <v>19.17382044717255</v>
+        <v>20.3230878485185</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.89787132080433</v>
+        <v>32.15996659717857</v>
       </c>
       <c r="D59" t="n">
-        <v>17.15203724811757</v>
+        <v>22.20738822888129</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.87779656776312</v>
+        <v>29.98281761086534</v>
       </c>
       <c r="D60" t="n">
-        <v>21.07178862562581</v>
+        <v>20.31628181037541</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.9113835140879</v>
+        <v>32.99689343216532</v>
       </c>
       <c r="D61" t="n">
-        <v>22.51189760353945</v>
+        <v>19.86667306183495</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.70987972872904</v>
+        <v>30.63590196655015</v>
       </c>
       <c r="D62" t="n">
-        <v>21.66232605684212</v>
+        <v>20.93062158440224</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.54058292623995</v>
+        <v>31.52615852014758</v>
       </c>
       <c r="D63" t="n">
-        <v>19.74415122701118</v>
+        <v>20.35033142186787</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.33647516644708</v>
+        <v>29.27806395101202</v>
       </c>
       <c r="D64" t="n">
-        <v>18.71931978611393</v>
+        <v>20.67853483341698</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>31.24962351939288</v>
+        <v>25.53082536592204</v>
       </c>
       <c r="D65" t="n">
-        <v>20.35993137868308</v>
+        <v>20.27874912420017</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.04632504357009</v>
+        <v>23.31147253932553</v>
       </c>
       <c r="D66" t="n">
-        <v>19.94301242061631</v>
+        <v>19.88305263366186</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.14826727082032</v>
+        <v>28.6154385079588</v>
       </c>
       <c r="D67" t="n">
-        <v>21.27331226685124</v>
+        <v>20.53450518467101</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.47465380909318</v>
+        <v>21.27452201881076</v>
       </c>
       <c r="D68" t="n">
-        <v>18.90309733971414</v>
+        <v>20.57325963191142</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.70546293632771</v>
+        <v>21.74885620169803</v>
       </c>
       <c r="D69" t="n">
-        <v>18.52826162029062</v>
+        <v>20.96613253042124</v>
       </c>
     </row>
   </sheetData>
